--- a/data/trans_dic/P55_7-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55_7-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de teléfono</t>
+          <t>Población que no puede permitirse disponer de teléfono (tasa de respuesta: 99,51%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>98,01%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>98,47%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>98,83%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,58; 100,0</t>
+          <t>97,55; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,58; 97,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,81; 99,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,71; 97,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,24; 99,25</t>
+          <t>96,01; 99,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,34; 97,08</t>
+          <t>93,8; 99,65</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>97,37; 99,26</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>96,11; 99,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>99,16%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>98,12%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>99,39%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>99,59%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>99,37%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>99,38%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,84; 99,89</t>
+          <t>98,78; 99,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,87; 99,32</t>
+          <t>97,14; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>98,27; 99,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>96,52; 99,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>98,88; 99,71</t>
+          <t>98,19; 99,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>97,28; 98,98</t>
+          <t>98,5; 100,0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>98,79; 99,68</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>98,47; 99,83</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -766,27 +942,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>99,81%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>99,9%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>99,06%</t>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>99,71%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>99,58; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,11; 99,63</t>
+          <t>96,78; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,99; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>97,73; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>99,47; 100,0</t>
+          <t>98,75; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>97,92; 99,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>99,49; 100,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>98,58; 100,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>98,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>99,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>97,97%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>98,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>99,09; 99,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,5; 98,59</t>
+          <t>96,95; 99,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98,44; 99,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,26; 98,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,97; 99,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,8; 98,21</t>
+          <t>94,8; 99,43</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96,68; 99,39</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>99,65%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>99,24%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>99,02%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>98,97%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>99,33%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>99,1%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>99,22; 99,87</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>98,46; 99,73</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>98,38; 99,46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>97,94; 99,56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>98,98; 99,61</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>98,5; 99,52</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de teléfono (tasa de respuesta: 99,51%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>719610</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>447386</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>873480</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>629126</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1593090</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1076512</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>706838; 724603</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>857657; 885161</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>602141; 639696</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1575250; 1605857</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1046943; 1086450</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>579.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>670.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1249.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>699.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1605667</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1048890</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1464990</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1071981</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3070658</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2120873</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1592984; 1611064</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1027415; 1057704</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1450565; 1472222</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1060236; 1076359</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3052700; 3080218</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2101332; 2130391</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>457.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>578.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1035.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>650.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1078997</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>825904</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1147289</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>893762</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2226286</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1719666</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>804130; 830865</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1135203; 1149517</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2217255; 2228514</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1700188; 1724627</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>639.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1068491</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>940122</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2008613</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1047631; 1076887</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>909703; 954190</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1972459; 2027873</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1321.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1025.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1623.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1253.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2944.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2278.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3404274</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3390672</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3485760</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3534991</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6890034</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6925663</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3389614; 3411934</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3363813; 3407321</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3463257; 3501212</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3497946; 3555830</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6865474; 6909155</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6883138; 6954581</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
